--- a/Part File Library/Source Files/Chrisousel/BOM.xlsx
+++ b/Part File Library/Source Files/Chrisousel/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>BOM for Chrisousel</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>0.7 Wire Diameter, 8mm OD, 15mm Height</t>
+  </si>
+  <si>
+    <t>MR115 Bearings</t>
+  </si>
+  <si>
+    <t>Likely to be replaced</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -560,12 +566,23 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Part File Library/Source Files/Chrisousel/BOM.xlsx
+++ b/Part File Library/Source Files/Chrisousel/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>BOM for Chrisousel</t>
   </si>
@@ -85,13 +85,49 @@
   </si>
   <si>
     <t>Likely to be replaced</t>
+  </si>
+  <si>
+    <t>Fan Duct</t>
+  </si>
+  <si>
+    <t>M3x30 Male Standoff</t>
+  </si>
+  <si>
+    <t>M3x40 Female Standoff</t>
+  </si>
+  <si>
+    <t>M4x14 Cap Head Screw</t>
+  </si>
+  <si>
+    <t>6020 Fan</t>
+  </si>
+  <si>
+    <t>High CFM</t>
+  </si>
+  <si>
+    <t>PTC Heater 12x7cm 260C</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005003758412972.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEKMLCO Soldering Plate with Cord </t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>10A for 120v service, 5a for 220v service</t>
+  </si>
+  <si>
+    <t>Thermal Fuse 105C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +139,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,14 +169,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,7 +633,86 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Part File Library/Source Files/Chrisousel/BOM.xlsx
+++ b/Part File Library/Source Files/Chrisousel/BOM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_9C30EFBC886CCDCE8C31FFE2DA3B6A37CF941122" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87915192-BF2E-4839-9D40-E7A897C19A91}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +61,6 @@
     <t>80x12.75mm load cell</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005002395846445.html</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -108,9 +106,6 @@
     <t>PTC Heater 12x7cm 260C</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005003758412972.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">YEKMLCO Soldering Plate with Cord </t>
   </si>
   <si>
@@ -121,12 +116,18 @@
   </si>
   <si>
     <t>Thermal Fuse 105C</t>
+  </si>
+  <si>
+    <t>Affiliate Link</t>
+  </si>
+  <si>
+    <t>Color: 5KG With HX711</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,6 +189,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -235,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +272,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,12 +516,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -502,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,13 +621,13 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -602,45 +638,45 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -648,7 +684,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -656,54 +692,54 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -711,14 +747,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{0A1F9CA0-5E78-448C-AE3B-8A4C58308C7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -730,7 +767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Part File Library/Source Files/Chrisousel/BOM.xlsx
+++ b/Part File Library/Source Files/Chrisousel/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_9C30EFBC886CCDCE8C31FFE2DA3B6A37CF941122" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87915192-BF2E-4839-9D40-E7A897C19A91}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_9C30EFBC886CCDCE8C31FFE2DA3B6A37CF941122" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A84DDF-B448-4844-81A1-0F8A91DC54CD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -529,7 +531,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -751,6 +753,7 @@
     <hyperlink ref="E12" r:id="rId2" xr:uid="{0A1F9CA0-5E78-448C-AE3B-8A4C58308C7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
